--- a/assets/smiteItemsgold.xlsx
+++ b/assets/smiteItemsgold.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hunter/Desktop/websites/smiteData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyle\Documents\smitehtml\smitewebsite\smiteSite\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0960CE-EB99-2645-B084-2D1505953876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C9FF0-A2D1-400C-9A0F-907D77D9F30D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15620" windowHeight="22400"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="smiteItems" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="397">
   <si>
     <t>8-Pointed Shuriken</t>
   </si>
@@ -1142,12 +1142,81 @@
   </si>
   <si>
     <t>Item Price</t>
+  </si>
+  <si>
+    <t>Total Item Price</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Image Path</t>
+  </si>
+  <si>
+    <t>Partial Item Price</t>
+  </si>
+  <si>
+    <t>Physical Power</t>
+  </si>
+  <si>
+    <t>Basic Attack Damage</t>
+  </si>
+  <si>
+    <t>Attack Speed</t>
+  </si>
+  <si>
+    <t>Physical Lifesteal</t>
+  </si>
+  <si>
+    <t>Physical Penetration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Percent Penetration </t>
+  </si>
+  <si>
+    <t>Critical Chance</t>
+  </si>
+  <si>
+    <t>Physical Protection</t>
+  </si>
+  <si>
+    <t>Magical Protection</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>HP5</t>
+  </si>
+  <si>
+    <t>Movement</t>
+  </si>
+  <si>
+    <t>Cooldown Percentage</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>MP5</t>
+  </si>
+  <si>
+    <t>Magical Power</t>
+  </si>
+  <si>
+    <t>Magical Lifesteal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magical Penetration </t>
+  </si>
+  <si>
+    <t>Magical Percent Penetration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1981,2134 +2050,3799 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="2" max="3" width="25.375" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="17" max="17" width="18.375" customWidth="1"/>
+    <col min="20" max="20" width="13.375" customWidth="1"/>
+    <col min="21" max="21" width="15.375" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="23" max="23" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>372</v>
       </c>
       <c r="B1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1" t="s">
+        <v>385</v>
+      </c>
+      <c r="M1" t="s">
+        <v>386</v>
+      </c>
+      <c r="N1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>390</v>
+      </c>
+      <c r="R1" t="s">
+        <v>391</v>
+      </c>
+      <c r="S1" t="s">
+        <v>392</v>
+      </c>
+      <c r="T1" t="s">
+        <v>393</v>
+      </c>
+      <c r="U1" t="s">
+        <v>394</v>
+      </c>
+      <c r="V1" t="s">
+        <v>395</v>
+      </c>
+      <c r="W1" t="s">
+        <v>396</v>
+      </c>
+      <c r="X1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>750</v>
+      </c>
+      <c r="D2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>550</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>550</v>
+      </c>
+      <c r="D5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1100</v>
+      </c>
+      <c r="D6">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>1250</v>
+      </c>
+      <c r="D7">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>1300</v>
+      </c>
+      <c r="D12">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14">
+        <v>650</v>
+      </c>
+      <c r="D14">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>150</v>
+      </c>
+      <c r="D16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>600</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>600</v>
+      </c>
+      <c r="D18">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>1450</v>
+      </c>
+      <c r="D19">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>900</v>
+      </c>
+      <c r="D20">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>1500</v>
+      </c>
+      <c r="D22">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>1400</v>
+      </c>
+      <c r="D23">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>1500</v>
+      </c>
+      <c r="D24">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>800</v>
+      </c>
+      <c r="D25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>700</v>
+      </c>
+      <c r="D26">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <v>1250</v>
+      </c>
+      <c r="D27">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <v>1150</v>
+      </c>
+      <c r="D28">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <v>450</v>
+      </c>
+      <c r="D29">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>900</v>
+      </c>
+      <c r="D31">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>600</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>600</v>
+      </c>
+      <c r="D32">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>1250</v>
+      </c>
+      <c r="D33">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>1350</v>
+      </c>
+      <c r="D34">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>1050</v>
+      </c>
+      <c r="D35">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>600</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>600</v>
+      </c>
+      <c r="D36">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <v>1500</v>
+      </c>
+      <c r="D37">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <v>1500</v>
+      </c>
+      <c r="D38">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <v>1350</v>
+      </c>
+      <c r="D39">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <v>950</v>
+      </c>
+      <c r="D40">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>300</v>
+      </c>
+      <c r="D41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>300</v>
+      </c>
+      <c r="D42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>400</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <v>400</v>
+      </c>
+      <c r="D43">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <v>550</v>
+      </c>
+      <c r="D44">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>600</v>
+      </c>
+      <c r="D45">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <v>1300</v>
+      </c>
+      <c r="D47">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>650</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>650</v>
+      </c>
+      <c r="D49">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50">
+        <v>850</v>
+      </c>
+      <c r="D50">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <v>1250</v>
+      </c>
+      <c r="D51">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>700</v>
+      </c>
+      <c r="D52">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <v>1500</v>
+      </c>
+      <c r="D54">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>650</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>650</v>
+      </c>
+      <c r="D55">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57">
+        <v>700</v>
+      </c>
+      <c r="D57">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58">
+        <v>800</v>
+      </c>
+      <c r="D58">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59">
+        <v>1050</v>
+      </c>
+      <c r="D59">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60">
+        <v>1500</v>
+      </c>
+      <c r="D60">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61">
+        <v>1500</v>
+      </c>
+      <c r="D61">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
         <v>650</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>650</v>
+      </c>
+      <c r="D62">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <v>1650</v>
+      </c>
+      <c r="D63">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64">
+        <v>1000</v>
+      </c>
+      <c r="D64">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65">
+        <v>900</v>
+      </c>
+      <c r="D65">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66">
+        <v>1500</v>
+      </c>
+      <c r="D66">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67">
+        <v>850</v>
+      </c>
+      <c r="D67">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68">
+        <v>1300</v>
+      </c>
+      <c r="D68">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69">
+        <v>1250</v>
+      </c>
+      <c r="D69">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
         <v>600</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <v>600</v>
+      </c>
+      <c r="D70">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71">
+        <v>1000</v>
+      </c>
+      <c r="D71">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72">
+        <v>3000</v>
+      </c>
+      <c r="D72">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
         <v>3000</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73">
+        <v>3000</v>
+      </c>
+      <c r="D73">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74">
+        <v>650</v>
+      </c>
+      <c r="D74">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
         <v>600</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75">
+        <v>600</v>
+      </c>
+      <c r="D75">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <v>800</v>
+      </c>
+      <c r="D76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <v>600</v>
+      </c>
+      <c r="D77">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
         <v>650</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <v>650</v>
+      </c>
+      <c r="D78">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
         <v>650</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <v>650</v>
+      </c>
+      <c r="D79">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <v>700</v>
+      </c>
+      <c r="D80">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81">
+        <v>750</v>
+      </c>
+      <c r="D81">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82">
+        <v>550</v>
+      </c>
+      <c r="D82">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83">
+        <v>300</v>
+      </c>
+      <c r="D83">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <v>1250</v>
+      </c>
+      <c r="D84">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85">
+        <v>1350</v>
+      </c>
+      <c r="D85">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
         <v>650</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86">
+        <v>650</v>
+      </c>
+      <c r="D86">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87">
+        <v>1200</v>
+      </c>
+      <c r="D87">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88">
+        <v>500</v>
+      </c>
+      <c r="D88">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89">
+        <v>700</v>
+      </c>
+      <c r="D89">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90">
+        <v>950</v>
+      </c>
+      <c r="D90">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91">
+        <v>1100</v>
+      </c>
+      <c r="D91">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>900</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92">
+        <v>900</v>
+      </c>
+      <c r="D92">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93">
+        <v>1500</v>
+      </c>
+      <c r="D93">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94">
+        <v>1350</v>
+      </c>
+      <c r="D94">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95">
+        <v>950</v>
+      </c>
+      <c r="D95">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
         <v>650</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96">
+        <v>650</v>
+      </c>
+      <c r="D96">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97">
+        <v>1250</v>
+      </c>
+      <c r="D97">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>600</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98">
+        <v>600</v>
+      </c>
+      <c r="D98">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99">
+        <v>700</v>
+      </c>
+      <c r="D99">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101">
+        <v>1200</v>
+      </c>
+      <c r="D101">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102">
+        <v>1400</v>
+      </c>
+      <c r="D102">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103">
+        <v>50</v>
+      </c>
+      <c r="D103">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104">
+        <v>1700</v>
+      </c>
+      <c r="D104">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105">
+        <v>850</v>
+      </c>
+      <c r="D105">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107">
+        <v>700</v>
+      </c>
+      <c r="D107">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108">
+        <v>800</v>
+      </c>
+      <c r="D108">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109">
+        <v>1500</v>
+      </c>
+      <c r="D109">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>700</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110">
+        <v>700</v>
+      </c>
+      <c r="D110">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111">
+        <v>1150</v>
+      </c>
+      <c r="D111">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112">
+        <v>900</v>
+      </c>
+      <c r="D112">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113">
+        <v>700</v>
+      </c>
+      <c r="D113">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115">
+        <v>550</v>
+      </c>
+      <c r="D115">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116">
+        <v>1500</v>
+      </c>
+      <c r="D116">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117">
+        <v>950</v>
+      </c>
+      <c r="D117">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>650</v>
+      </c>
+      <c r="D118">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>1250</v>
+      </c>
+      <c r="D119">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
         <v>600</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>600</v>
+      </c>
+      <c r="D120">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>1500</v>
+      </c>
+      <c r="D121">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122">
         <v>650</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>650</v>
+      </c>
+      <c r="D122">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>950</v>
+      </c>
+      <c r="D123">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>600</v>
+      </c>
+      <c r="D124">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>750</v>
+      </c>
+      <c r="D125">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126">
         <v>650</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>650</v>
+      </c>
+      <c r="D126">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>700</v>
+      </c>
+      <c r="D127">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>1500</v>
+      </c>
+      <c r="D128">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
         <v>700</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>700</v>
+      </c>
+      <c r="D129">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>600</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>600</v>
+      </c>
+      <c r="D130">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>700</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>700</v>
+      </c>
+      <c r="D131">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>1100</v>
+      </c>
+      <c r="D132">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>550</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>550</v>
+      </c>
+      <c r="D133">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>950</v>
+      </c>
+      <c r="D134">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135">
         <v>650</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>650</v>
+      </c>
+      <c r="D135">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>1000</v>
+      </c>
+      <c r="D136">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138">
         <v>650</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>650</v>
+      </c>
+      <c r="D138">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>1000</v>
+      </c>
+      <c r="D140">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>1300</v>
+      </c>
+      <c r="D141">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142">
         <v>50</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>50</v>
+      </c>
+      <c r="D142">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>1500</v>
+      </c>
+      <c r="D143">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>1500</v>
+      </c>
+      <c r="D144">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145">
         <v>750</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>750</v>
+      </c>
+      <c r="D145">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>1400</v>
+      </c>
+      <c r="D146">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>700</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>700</v>
+      </c>
+      <c r="D147">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>900</v>
+      </c>
+      <c r="D149">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150">
         <v>600</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>600</v>
+      </c>
+      <c r="D150">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151">
         <v>50</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>50</v>
+      </c>
+      <c r="D151">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>1050</v>
+      </c>
+      <c r="D152">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153">
         <v>700</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>700</v>
+      </c>
+      <c r="D153">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>1050</v>
+      </c>
+      <c r="D154">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>900</v>
+      </c>
+      <c r="D155">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>850</v>
+      </c>
+      <c r="D156">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>1500</v>
+      </c>
+      <c r="D157">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>1500</v>
+      </c>
+      <c r="D158">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>1000</v>
+      </c>
+      <c r="D159">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>1100</v>
+      </c>
+      <c r="D161">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>950</v>
+      </c>
+      <c r="D162">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163">
         <v>500</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>500</v>
+      </c>
+      <c r="D163">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>800</v>
+      </c>
+      <c r="D164">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>1500</v>
+      </c>
+      <c r="D165">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>500</v>
+      </c>
+      <c r="D166">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>1200</v>
+      </c>
+      <c r="D168">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>1450</v>
+      </c>
+      <c r="D169">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>1150</v>
+      </c>
+      <c r="D170">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>700</v>
+      </c>
+      <c r="D171">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>700</v>
+      </c>
+      <c r="D172">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>850</v>
+      </c>
+      <c r="D173">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174">
+        <v>1200</v>
+      </c>
+      <c r="D174">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175">
+        <v>1100</v>
+      </c>
+      <c r="D175">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176">
+        <v>850</v>
+      </c>
+      <c r="D176">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177">
+        <v>1600</v>
+      </c>
+      <c r="D177">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178">
         <v>650</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178">
+        <v>650</v>
+      </c>
+      <c r="D178">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179">
+        <v>1050</v>
+      </c>
+      <c r="D179">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180">
+        <v>1000</v>
+      </c>
+      <c r="D180">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181">
+        <v>1500</v>
+      </c>
+      <c r="D181">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182">
+        <v>800</v>
+      </c>
+      <c r="D182">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
       <c r="B183">
         <v>750</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183">
+        <v>750</v>
+      </c>
+      <c r="D183">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184">
+        <v>1500</v>
+      </c>
+      <c r="D184">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185">
+        <v>1250</v>
+      </c>
+      <c r="D185">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186">
+        <v>1250</v>
+      </c>
+      <c r="D186">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
       <c r="B187">
         <v>550</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187">
+        <v>550</v>
+      </c>
+      <c r="D187">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188">
         <v>120</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188">
+        <v>120</v>
+      </c>
+      <c r="D188">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189">
+        <v>1350</v>
+      </c>
+      <c r="D189">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190">
+        <v>1000</v>
+      </c>
+      <c r="D190">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191">
+        <v>300</v>
+      </c>
+      <c r="D191">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192">
+        <v>750</v>
+      </c>
+      <c r="D192">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194">
+        <v>1200</v>
+      </c>
+      <c r="D194">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195">
+        <v>650</v>
+      </c>
+      <c r="D195">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196">
+        <v>950</v>
+      </c>
+      <c r="D196">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
       <c r="B197">
         <v>650</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197">
+        <v>650</v>
+      </c>
+      <c r="D197">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198">
+        <v>650</v>
+      </c>
+      <c r="D198">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199">
         <v>650</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199">
+        <v>650</v>
+      </c>
+      <c r="D199">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200">
+        <v>1500</v>
+      </c>
+      <c r="D200">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201">
+        <v>450</v>
+      </c>
+      <c r="D201">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202">
+        <v>600</v>
+      </c>
+      <c r="D202">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203">
+        <v>1000</v>
+      </c>
+      <c r="D203">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204">
+        <v>700</v>
+      </c>
+      <c r="D204">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205">
+        <v>1050</v>
+      </c>
+      <c r="D205">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206">
+        <v>1200</v>
+      </c>
+      <c r="D206">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207">
+        <v>1300</v>
+      </c>
+      <c r="D207">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208">
+        <v>700</v>
+      </c>
+      <c r="D208">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209">
+        <v>1250</v>
+      </c>
+      <c r="D209">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210">
+        <v>1200</v>
+      </c>
+      <c r="D210">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211">
+        <v>1150</v>
+      </c>
+      <c r="D211">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212">
+        <v>1050</v>
+      </c>
+      <c r="D212">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213">
+        <v>850</v>
+      </c>
+      <c r="D213">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214">
         <v>650</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214">
+        <v>650</v>
+      </c>
+      <c r="D214">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215">
+        <v>600</v>
+      </c>
+      <c r="D215">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
       <c r="B216">
         <v>600</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216">
+        <v>600</v>
+      </c>
+      <c r="D216">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217">
+        <v>950</v>
+      </c>
+      <c r="D217">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218">
+        <v>1000</v>
+      </c>
+      <c r="D218">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219">
+        <v>1050</v>
+      </c>
+      <c r="D219">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220">
+        <v>750</v>
+      </c>
+      <c r="D220">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221">
+        <v>950</v>
+      </c>
+      <c r="D221">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222">
+        <v>1000</v>
+      </c>
+      <c r="D222">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223">
+        <v>950</v>
+      </c>
+      <c r="D223">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224">
+        <v>850</v>
+      </c>
+      <c r="D224">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225">
+        <v>1500</v>
+      </c>
+      <c r="D225">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227">
+        <v>1500</v>
+      </c>
+      <c r="D227">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228">
+        <v>1500</v>
+      </c>
+      <c r="D228">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
       <c r="B229">
         <v>700</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229">
+        <v>700</v>
+      </c>
+      <c r="D229">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
       <c r="B230">
         <v>650</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230">
+        <v>650</v>
+      </c>
+      <c r="D230">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231">
+        <v>900</v>
+      </c>
+      <c r="D231">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232">
+        <v>850</v>
+      </c>
+      <c r="D232">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234">
+        <v>1400</v>
+      </c>
+      <c r="D234">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235">
+        <v>1500</v>
+      </c>
+      <c r="D235">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236">
+        <v>950</v>
+      </c>
+      <c r="D236">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237">
+        <v>950</v>
+      </c>
+      <c r="D237">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238">
+        <v>1000</v>
+      </c>
+      <c r="D238">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239">
+        <v>1350</v>
+      </c>
+      <c r="D239">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240">
+        <v>1350</v>
+      </c>
+      <c r="D240">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241">
+        <v>650</v>
+      </c>
+      <c r="D241">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
       <c r="B242">
         <v>550</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242">
+        <v>550</v>
+      </c>
+      <c r="D242">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243">
+        <v>1050</v>
+      </c>
+      <c r="D243">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244">
+        <v>500</v>
+      </c>
+      <c r="D244">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245">
+        <v>950</v>
+      </c>
+      <c r="D245">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246">
+        <v>1400</v>
+      </c>
+      <c r="D246">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247">
+        <v>1400</v>
+      </c>
+      <c r="D247">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248">
+        <v>800</v>
+      </c>
+      <c r="D248">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
       <c r="B249">
         <v>650</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249">
+        <v>650</v>
+      </c>
+      <c r="D249">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
       <c r="B250">
         <v>700</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250">
+        <v>700</v>
+      </c>
+      <c r="D250">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252">
+        <v>1000</v>
+      </c>
+      <c r="D252">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253">
+        <v>900</v>
+      </c>
+      <c r="D253">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254">
+        <v>1250</v>
+      </c>
+      <c r="D254">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
       <c r="B255">
         <v>600</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255">
+        <v>600</v>
+      </c>
+      <c r="D255">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>254</v>
       </c>
       <c r="B256">
         <v>50</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256">
+        <v>50</v>
+      </c>
+      <c r="D256">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257">
+        <v>750</v>
+      </c>
+      <c r="D257">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258">
+        <v>500</v>
+      </c>
+      <c r="D258">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>257</v>
       </c>
       <c r="B259">
         <v>600</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259">
+        <v>600</v>
+      </c>
+      <c r="D259">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260">
+        <v>1150</v>
+      </c>
+      <c r="D260">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261">
         <v>600</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261">
+        <v>600</v>
+      </c>
+      <c r="D261">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262">
+        <v>850</v>
+      </c>
+      <c r="D262">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263">
+        <v>1100</v>
+      </c>
+      <c r="D263">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264">
+        <v>700</v>
+      </c>
+      <c r="D264">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>371</v>
+      </c>
+      <c r="C265">
+        <v>800</v>
+      </c>
+      <c r="D265">
+        <v>2050</v>
       </c>
     </row>
   </sheetData>
